--- a/doc/技术交流/交流提纲.xlsx
+++ b/doc/技术交流/交流提纲.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>主题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,29 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医嘱的概念设计和设计结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、参与医嘱研发HIS研发人员；
-2、需求分析师、研发骨干；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、参与病历研发EMR研发人员；
-2、需求分析师、研发骨干；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,16 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、参与患者入出转研发HIS研发人员；
-2、需求分析师、研发骨干；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研发骨干、架构师、部门负责人、研发主管等；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,20 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、参与费用研发HIS研发人员；
-2、需求分析师、研发骨干；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、参与药房研发HIS研发人员；
-2、需求分析师、研发骨干；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、药房的概念结构；
 2、药房与医嘱的结合设计；
 3、在EVE下一般应用设计上的通用结构和约束；</t>
@@ -154,13 +109,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>研发骨干、部门负责人、研发主管等；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房应用及其它应用设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、参与医嘱研发的HIS研发人员；
+2、需求分析师、研发骨干；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、参与病历研发的EMR研发人员；
+2、需求分析师、研发骨干；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、参与患者入出转研发的HIS研发人员；
+2、需求分析师、研发骨干；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、参与费用研发的HIS研发人员；
+2、需求分析师、研发骨干；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、参与药房研发的HIS研发人员；
+2、需求分析师、研发骨干；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、EVE是怎么研发过来的；
 2、说明EVE确立的目标（让研发人员快乐、让研发过程高效）；
 3、说明一些在EVE研发过程中应用的基础支撑结构（Maven的应用、测试结构的设计、迭代）；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研发骨干、部门负责人、研发主管等；</t>
+    <t>2-3小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,7 +172,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>药房应用及其它应用设计</t>
+    <t>1-2小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、关于方法的运用观点（业务分析师、架构师都要以编码的方式输出其价值【至少可以看出代码中的问题】）；
+2、关于技术路线的选择；
+3、说明坚持业务代码是可以【结构化】的（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>研发竞争力从哪里积累来的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）；</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +227,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -525,15 +571,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="87" customWidth="1"/>
+    <col min="3" max="3" width="94.5" customWidth="1"/>
     <col min="4" max="4" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
   </cols>
@@ -557,104 +603,112 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/技术交流/交流提纲.xlsx
+++ b/doc/技术交流/交流提纲.xlsx
@@ -75,12 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、患者一次就诊的状态图；
-2、患者一次就诊与相关实体的关系（患者、挂号、财务账户、医嘱单、病历夹、病案等）；
-3、患者一次就诊的设计结构（说明扩展方式）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研发骨干、架构师、部门负责人、研发主管等；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,15 +174,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1、患者一次就诊的状态图；
+2、患者一次就诊与相关实体的关系（患者、挂号、财务账户、医嘱单、病历夹、病案等）；
+3、患者一次就诊的设计结构（说明扩展方式）；
+4、患者一次就诊的数据归档；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1、关于方法的运用观点（业务分析师、架构师都要以编码的方式输出其价值【至少可以看出代码中的问题】）；
 2、关于技术路线的选择；
-3、说明坚持业务代码是可以【结构化】的（</t>
+3、再次强调坚持业务代码是可以【结构化】的（</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -232,7 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -571,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,10 +607,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
@@ -620,94 +621,94 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doc/技术交流/交流提纲.xlsx
+++ b/doc/技术交流/交流提纲.xlsx
@@ -54,21 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、EVE的逻辑、开发，以及构想的部署结构；
-2、EVE构想的分离核心研发以及二次定制的办法；
-3、说明一些选择（技术路线java、面向对象、外键【数据的完整性和一致性】、EDA、错误处理等）；
-4、总结一个在研发EVE时的观念（不仅仅为了功能）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、医嘱的组成以及各部分的职责；
-2、医嘱的设计结构（说明扩展方式）；
-3、医嘱相关的代码是如何在开发结构上进行的分布；
-4、在性能方面的考虑；
-5、总结一些在设计医嘱时的经验（分离关注[继承和包含]、委托）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、病历在概念上的构想；
 2、病历的设计结构（说明扩展方式）；
 3、说明一些风险（接受程度）和可能演进的点（存储）；</t>
@@ -178,6 +163,21 @@
 2、患者一次就诊与相关实体的关系（患者、挂号、财务账户、医嘱单、病历夹、病案等）；
 3、患者一次就诊的设计结构（说明扩展方式）；
 4、患者一次就诊的数据归档；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、医嘱的组成以及各部分的职责；
+2、医嘱的设计结构（说明扩展方式）；
+3、医嘱相关的代码是如何在开发结构上进行的分布；
+4、在性能方面的考虑和措施；
+5、总结一些在设计医嘱时的经验（分离关注、委托）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、EVE的逻辑、开发，以及构想的部署结构；
+2、EVE构想的分离核心研发以及二次定制的办法（分离、边界【API】、磨合）；
+3、说明一些选择（技术路线java、面向对象、外键【数据的质量】、EDA、错误处理等）；
+4、总结一个在研发EVE时的观念（不仅仅为了功能）；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,7 +206,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）；</t>
+      <t>）；
+4、对未来研发模式的构想；</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,7 +574,7 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -604,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
@@ -618,27 +619,27 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -646,69 +647,69 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/技术交流/交流提纲.xlsx
+++ b/doc/技术交流/交流提纲.xlsx
@@ -26,14 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
-    <t>主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受众</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,13 +163,6 @@
 3、医嘱相关的代码是如何在开发结构上进行的分布；
 4、在性能方面的考虑和措施；
 5、总结一些在设计医嘱时的经验（分离关注、委托）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、EVE的逻辑、开发，以及构想的部署结构；
-2、EVE构想的分离核心研发以及二次定制的办法（分离、边界【API】、磨合）；
-3、说明一些选择（技术路线java、面向对象、外键【数据的质量】、EDA、错误处理等）；
-4、总结一个在研发EVE时的观念（不仅仅为了功能）；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -209,6 +194,22 @@
       <t>）；
 4、对未来研发模式的构想；</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、EVE的逻辑、开发，以及构想的部署结构；
+2、EVE构想的分离核心研发以及二次定制的办法（分离、边界【API】、磨合）；
+3、在EVE聚集共性和区分差异业务逻辑的办法和例子
+4、说明一些选择（技术路线java、面向对象、外键【数据的质量】、EDA、错误处理等）；
+5、总结一个在研发EVE时的观念（不仅仅为了功能）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提纲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,128 +589,128 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
